--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_554.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_554.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32992-d244449-Reviews-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Whittier.h1040715.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_554.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,278 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r483515149-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>32992</t>
+  </si>
+  <si>
+    <t>244449</t>
+  </si>
+  <si>
+    <t>483515149</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, Neutral </t>
+  </si>
+  <si>
+    <t>Clean neutral room, very simple but practical. No ironing board in the room we stayed, or hairdryer which my friend was upset.  Would stay again, walking distance from Denny's and other great restaurants. Easy Freeway access.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r456286070-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>456286070</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>No seemen stains here</t>
+  </si>
+  <si>
+    <t>Clean and inexpensive place to crash for a few hours.   Very clean and the franchise owners are very nice.  I do miss that clasic motel 6 bed spread but this will do for the night.  This place has smoking and non smoking rooms and a few places to eat within a 5 minute walk.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r439687657-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>439687657</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>I believe this motel 6 is were Maggie,and friends were planning a get to together in Corona.The three ladies are great to talk to in bed very professional.The reason I gave Excellent because you had a room available.You need spa suites too...</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r362201079-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>362201079</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>Wow, where do I even begin?
+My "stay" at Motel 6 Rowland Heights was by far one of the most stressful experiences I've had in a very, very long time. 
+I booked a room at this location for two nights (April 5th, 2016 - April 7th, 2016) and I pre-paid for it online via Expedia.com 
+When I initially attempted to check in, the front desk had absolutely no record of my reservation. I provided them with my itinerary number, my confirmation number, and even a copy of my receipt. After at least an hour or so of calling Expedia.com and Motel 6's customer support number, the issue was finally sorted out and I was able to check into my room. 
+The next day on April 6th, I was locked out of my room for reasons unbeknownst to me. I promptly went to the front desk, and was told that they had no record of my reservation. I was blown away, and began to feel as if I were in a bad Disney movie or in an episode of The Twilight Zone. The agent at the front desk was the same one that I dealt with the day prior, and he was totally clueless. 
+I once again provided the front desk with my itinerary number, confirmation number, and a copy of my receipt proving that I had made the reservation for two nights (April 5th, 2016 - April 7th, 2016) and...Wow, where do I even begin?My "stay" at Motel 6 Rowland Heights was by far one of the most stressful experiences I've had in a very, very long time. I booked a room at this location for two nights (April 5th, 2016 - April 7th, 2016) and I pre-paid for it online via Expedia.com When I initially attempted to check in, the front desk had absolutely no record of my reservation. I provided them with my itinerary number, my confirmation number, and even a copy of my receipt. After at least an hour or so of calling Expedia.com and Motel 6's customer support number, the issue was finally sorted out and I was able to check into my room. The next day on April 6th, I was locked out of my room for reasons unbeknownst to me. I promptly went to the front desk, and was told that they had no record of my reservation. I was blown away, and began to feel as if I were in a bad Disney movie or in an episode of The Twilight Zone. The agent at the front desk was the same one that I dealt with the day prior, and he was totally clueless. I once again provided the front desk with my itinerary number, confirmation number, and a copy of my receipt proving that I had made the reservation for two nights (April 5th, 2016 - April 7th, 2016) and that I had already paid for it in advance. With very little help or empathy from the front desk, I called Expedia.com and Motel 6's customer support number AGAIN and explained the situation to them for a second time. Both Expedia.com and Motel 6's customer support team confirmed that I definitely had a prepaid reservation for two nights, but couldn't explain as to why the front desk had no record of this. After about an hour of going back and forth on the phone with customer support, I was eventually greeted by the motel manager who showed up at my door with FOUR UNIFORMED SHERIFF'S DEPUTIES. The manager (in very broken English) exclaimed that I was running a scam of some sort, and that I was trespassing on the property. I was frisked for weapons, and then I was interrogated by the officers. After I explained the situation to them, the Sheriff's deputies simply advised me to collect my belongings on the spot, and to leave the premises right away. So I did. Immediately after, I called Motel 6's customer support number for a third and final time and I filed a formal complaint against the Rowland Heights location. The representative I spoke with profusely apologized for what had happened, and reassured me that my reservation was indeed legitimate and that everything on my end was done correctly. She went onto explain that the actions the Rowland Heights location took against me was completely unjustified and 110% inappropriate. On a positive note, Expedia.com processed a full refund to my debit card and profusely apologized as well, and they even helped move me to another hotel in the area. Overall, I have never in my life experienced anything like this whatsoever. My advice to anyone reading this would be to stay far, far away from Motel 6 Rowland Heights. If you absolutely have to stay here, just keep any receipts, confirmation numbers, etc. in order to be on the safe side. If and when it comes down to it, it'll be your word against theirs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Wow, where do I even begin?
+My "stay" at Motel 6 Rowland Heights was by far one of the most stressful experiences I've had in a very, very long time. 
+I booked a room at this location for two nights (April 5th, 2016 - April 7th, 2016) and I pre-paid for it online via Expedia.com 
+When I initially attempted to check in, the front desk had absolutely no record of my reservation. I provided them with my itinerary number, my confirmation number, and even a copy of my receipt. After at least an hour or so of calling Expedia.com and Motel 6's customer support number, the issue was finally sorted out and I was able to check into my room. 
+The next day on April 6th, I was locked out of my room for reasons unbeknownst to me. I promptly went to the front desk, and was told that they had no record of my reservation. I was blown away, and began to feel as if I were in a bad Disney movie or in an episode of The Twilight Zone. The agent at the front desk was the same one that I dealt with the day prior, and he was totally clueless. 
+I once again provided the front desk with my itinerary number, confirmation number, and a copy of my receipt proving that I had made the reservation for two nights (April 5th, 2016 - April 7th, 2016) and...Wow, where do I even begin?My "stay" at Motel 6 Rowland Heights was by far one of the most stressful experiences I've had in a very, very long time. I booked a room at this location for two nights (April 5th, 2016 - April 7th, 2016) and I pre-paid for it online via Expedia.com When I initially attempted to check in, the front desk had absolutely no record of my reservation. I provided them with my itinerary number, my confirmation number, and even a copy of my receipt. After at least an hour or so of calling Expedia.com and Motel 6's customer support number, the issue was finally sorted out and I was able to check into my room. The next day on April 6th, I was locked out of my room for reasons unbeknownst to me. I promptly went to the front desk, and was told that they had no record of my reservation. I was blown away, and began to feel as if I were in a bad Disney movie or in an episode of The Twilight Zone. The agent at the front desk was the same one that I dealt with the day prior, and he was totally clueless. I once again provided the front desk with my itinerary number, confirmation number, and a copy of my receipt proving that I had made the reservation for two nights (April 5th, 2016 - April 7th, 2016) and that I had already paid for it in advance. With very little help or empathy from the front desk, I called Expedia.com and Motel 6's customer support number AGAIN and explained the situation to them for a second time. Both Expedia.com and Motel 6's customer support team confirmed that I definitely had a prepaid reservation for two nights, but couldn't explain as to why the front desk had no record of this. After about an hour of going back and forth on the phone with customer support, I was eventually greeted by the motel manager who showed up at my door with FOUR UNIFORMED SHERIFF'S DEPUTIES. The manager (in very broken English) exclaimed that I was running a scam of some sort, and that I was trespassing on the property. I was frisked for weapons, and then I was interrogated by the officers. After I explained the situation to them, the Sheriff's deputies simply advised me to collect my belongings on the spot, and to leave the premises right away. So I did. Immediately after, I called Motel 6's customer support number for a third and final time and I filed a formal complaint against the Rowland Heights location. The representative I spoke with profusely apologized for what had happened, and reassured me that my reservation was indeed legitimate and that everything on my end was done correctly. She went onto explain that the actions the Rowland Heights location took against me was completely unjustified and 110% inappropriate. On a positive note, Expedia.com processed a full refund to my debit card and profusely apologized as well, and they even helped move me to another hotel in the area. Overall, I have never in my life experienced anything like this whatsoever. My advice to anyone reading this would be to stay far, far away from Motel 6 Rowland Heights. If you absolutely have to stay here, just keep any receipts, confirmation numbers, etc. in order to be on the safe side. If and when it comes down to it, it'll be your word against theirs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r298079192-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>298079192</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Nice Motel:  Better Restaurants</t>
+  </si>
+  <si>
+    <t>The staff were very nice.  The bed sheets seemed to have a lot of detergent &amp;/or filler left in them.  I used a small trash can for ice since there was no refrigerator.  They have a guest laundry room.The best part was walking to all the Asian restaurants behind the motel.  The buildings where the restaurants are in appears to be a business complex, but tucked away are many shops &amp; restaurants.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r292824599-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>292824599</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Worst Experience!</t>
+  </si>
+  <si>
+    <t>I normally do everything I can to avoid staying with this chain as we always have something happen. However, while on our trip we made some last minute changes and needed somewhere to sleep. Based on the pictures and fairly good reviews if this updated property we gave it a try. 
+We booked two nights. When we arrived Abilina was very pleasant and I let her know that the rug outside my door and sidewalk were soaked causing mud and wet footprints to extend into our room and hardwood floors. She gave us an extra towel to put down. 
+Went to bed at midnight. Woke up at 3am and upon stepping out of my bed stepped into a puddle of water on my floor. I immediately turned on the light to find that half our room floor was flooded. I threw what towels I could down and tried to sleep a little more as we had to be to a conference a drive away fairly early. Upon waking at 6:30 I found that the flooding has extended to other parts of the room and was actually seeping from under the interior walls!  We are not talking a small amount of water. We are talking it took a dozen towels that were sopping wet to even be able to get ready and get out flooded. I called the front desk immediately and Sandra was not happy about being asked to come...I normally do everything I can to avoid staying with this chain as we always have something happen. However, while on our trip we made some last minute changes and needed somewhere to sleep. Based on the pictures and fairly good reviews if this updated property we gave it a try. We booked two nights. When we arrived Abilina was very pleasant and I let her know that the rug outside my door and sidewalk were soaked causing mud and wet footprints to extend into our room and hardwood floors. She gave us an extra towel to put down. Went to bed at midnight. Woke up at 3am and upon stepping out of my bed stepped into a puddle of water on my floor. I immediately turned on the light to find that half our room floor was flooded. I threw what towels I could down and tried to sleep a little more as we had to be to a conference a drive away fairly early. Upon waking at 6:30 I found that the flooding has extended to other parts of the room and was actually seeping from under the interior walls!  We are not talking a small amount of water. We are talking it took a dozen towels that were sopping wet to even be able to get ready and get out flooded. I called the front desk immediately and Sandra was not happy about being asked to come to our room, but I insisted she see this for herself. She was shocked!!!!  I asked for the second night to be cancelled and refunded as well as the night we were there. Had I slipped there could have some pretty serious issues and I would think after what we went through a refund would be a no brainer. Of course she couldn't authorize both refunds and only gave me the cancelled night. She called her manager who I heard telling on the phone saying she was not allowed to refund us for the flooded room, distress, and hassle. I informed the front desk lady I would be contacting corporate as well as the L A county hotel authority both of which I have done. She refused to let me talk to her manager. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles - Rowland Heights, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>I normally do everything I can to avoid staying with this chain as we always have something happen. However, while on our trip we made some last minute changes and needed somewhere to sleep. Based on the pictures and fairly good reviews if this updated property we gave it a try. 
+We booked two nights. When we arrived Abilina was very pleasant and I let her know that the rug outside my door and sidewalk were soaked causing mud and wet footprints to extend into our room and hardwood floors. She gave us an extra towel to put down. 
+Went to bed at midnight. Woke up at 3am and upon stepping out of my bed stepped into a puddle of water on my floor. I immediately turned on the light to find that half our room floor was flooded. I threw what towels I could down and tried to sleep a little more as we had to be to a conference a drive away fairly early. Upon waking at 6:30 I found that the flooding has extended to other parts of the room and was actually seeping from under the interior walls!  We are not talking a small amount of water. We are talking it took a dozen towels that were sopping wet to even be able to get ready and get out flooded. I called the front desk immediately and Sandra was not happy about being asked to come...I normally do everything I can to avoid staying with this chain as we always have something happen. However, while on our trip we made some last minute changes and needed somewhere to sleep. Based on the pictures and fairly good reviews if this updated property we gave it a try. We booked two nights. When we arrived Abilina was very pleasant and I let her know that the rug outside my door and sidewalk were soaked causing mud and wet footprints to extend into our room and hardwood floors. She gave us an extra towel to put down. Went to bed at midnight. Woke up at 3am and upon stepping out of my bed stepped into a puddle of water on my floor. I immediately turned on the light to find that half our room floor was flooded. I threw what towels I could down and tried to sleep a little more as we had to be to a conference a drive away fairly early. Upon waking at 6:30 I found that the flooding has extended to other parts of the room and was actually seeping from under the interior walls!  We are not talking a small amount of water. We are talking it took a dozen towels that were sopping wet to even be able to get ready and get out flooded. I called the front desk immediately and Sandra was not happy about being asked to come to our room, but I insisted she see this for herself. She was shocked!!!!  I asked for the second night to be cancelled and refunded as well as the night we were there. Had I slipped there could have some pretty serious issues and I would think after what we went through a refund would be a no brainer. Of course she couldn't authorize both refunds and only gave me the cancelled night. She called her manager who I heard telling on the phone saying she was not allowed to refund us for the flooded room, distress, and hassle. I informed the front desk lady I would be contacting corporate as well as the L A county hotel authority both of which I have done. She refused to let me talk to her manager. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r167354817-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>167354817</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>The manager at this establishment is almost subhuman in his ways of comprehending how to run this business. He is very rude, cocky, incoherent, and is a waste of resources. Somehow, it warms his shriveled cockles to be rude to guests. His vindictive behavior led to my exile from this Motel 6 after my friend and I...I have been traveling around the world for work for the past 8 years, I stay in Motels/ Hotels about 150 nights of the year, i am self contracted so i when i can not find a good 3 star on priceline i'll just book a local Motel6 or Super8, TYPICALLY you pay for what you get, a room, shower and off in the morning. This...moreMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The manager at this establishment is almost subhuman in his ways of comprehending how to run this business. He is very rude, cocky, incoherent, and is a waste of resources. Somehow, it warms his shriveled cockles to be rude to guests. His vindictive behavior led to my exile from this Motel 6 after my friend and I...I have been traveling around the world for work for the past 8 years, I stay in Motels/ Hotels about 150 nights of the year, i am self contracted so i when i can not find a good 3 star on priceline i'll just book a local Motel6 or Super8, TYPICALLY you pay for what you get, a room, shower and off in the morning. This...moreMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r132699135-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>132699135</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>It's a Motel 6!</t>
+  </si>
+  <si>
+    <t>When you book at the Motel 6, you shouldn't expect the Sheraton.   The gentleman at the front desk was friendly enough at check in, he provided extra pillows for us when we asked later in the evening.  The bedspreads in the room were hideous, but functional.  The beds were very soft.  Once we were in the room, we felt safe, but worried about the rental car all night, as we heard sirens racing up and down the street.  We stayed in a room close to the freeway but did not hear the roar of cars.  We did use the swimming pool, it was salt water, and although cold, warmed up nicely once we were in.  This motel 6 is conviently located off the Hwy, but not in the best location.  We wished we had stayed at the Best Western across the freeway where we have always had great expierences.  We wanted to save some money and this Motel 6 lived up to its name.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>When you book at the Motel 6, you shouldn't expect the Sheraton.   The gentleman at the front desk was friendly enough at check in, he provided extra pillows for us when we asked later in the evening.  The bedspreads in the room were hideous, but functional.  The beds were very soft.  Once we were in the room, we felt safe, but worried about the rental car all night, as we heard sirens racing up and down the street.  We stayed in a room close to the freeway but did not hear the roar of cars.  We did use the swimming pool, it was salt water, and although cold, warmed up nicely once we were in.  This motel 6 is conviently located off the Hwy, but not in the best location.  We wished we had stayed at the Best Western across the freeway where we have always had great expierences.  We wanted to save some money and this Motel 6 lived up to its name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r115335520-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>115335520</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>A Scuzzy, Vindictive, Sleezebag Manager</t>
+  </si>
+  <si>
+    <t>The manager at this establishment is almost subhuman in his ways of comprehending how to run this business.  He is very rude, cocky, incoherent, and is a waste of resources.  Somehow, it warms his shriveled cockles to be rude to guests.  His vindictive behavior led to my exile from this Motel 6 after my friend and I complained to corporate for his childlike behavior.  Motel 6 needs to fire this man because he clearly doesn't deserve even my table scraps,If you'd like attitude from a low-life, slimy, bottom-feeding manager with a power trip, stay here.   bed, but the extras involved (crack heads loitering the halls, drunk prostitutes, police being called,  a creepy balding maid,, homeless begging for change by the rooms,  and unfriendly front desk ladies) should be enough for one to shell out the extra bucks and stay at the Quality Inn or the Best Western (staff here is wonderful!)Motel 6 Rowland Heights is a raw look at just how ghetto City of Industry is, the manager being a perfect ambassador for this type of scuzzy environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>The manager at this establishment is almost subhuman in his ways of comprehending how to run this business.  He is very rude, cocky, incoherent, and is a waste of resources.  Somehow, it warms his shriveled cockles to be rude to guests.  His vindictive behavior led to my exile from this Motel 6 after my friend and I complained to corporate for his childlike behavior.  Motel 6 needs to fire this man because he clearly doesn't deserve even my table scraps,If you'd like attitude from a low-life, slimy, bottom-feeding manager with a power trip, stay here.   bed, but the extras involved (crack heads loitering the halls, drunk prostitutes, police being called,  a creepy balding maid,, homeless begging for change by the rooms,  and unfriendly front desk ladies) should be enough for one to shell out the extra bucks and stay at the Quality Inn or the Best Western (staff here is wonderful!)Motel 6 Rowland Heights is a raw look at just how ghetto City of Industry is, the manager being a perfect ambassador for this type of scuzzy environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r13013743-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>13013743</t>
+  </si>
+  <si>
+    <t>01/26/2008</t>
+  </si>
+  <si>
+    <t>Stayed 1 Night During Travel to SoCal - No Problems</t>
+  </si>
+  <si>
+    <t>We were 1S/2A/1C + 1 small dog that stayed for one night mid-week in Jan '08. Checked in the evening without troubles - had made prior reservation. 
+Was given a hand written map w/direction to our room and had no problem finding it. Parking places available just outside and behind our room. Our room door (1st floor) opened to a nice courtyard area. Room smelled fresh when entering and everything inside seemed clean. Beds were right against walls which meant only one side could get in and out easily. Beds weren't the most comfortable, but they worked. This room/location was perfect for our needs for a one night place to stay while traveling. 
+Neighborhood seemed decent, quiet and safe - w/a high Asian population in the Rowland Heights area. Although we didn't get to enjoy any good Asian food we did grab a quick dessert from Fosters Feeze/El Pollo Loco (within walking distance from this Motel 6).  We also saw a Denny's on the other corner.
+Some freeway noise could be heard - walls obviously not to thick - and we also heard a rude man on a cell phone having a conversation for a little bit (right in front of our room) around 1am. 
+This Motel 6 property overall was very good, just about what you'd expect for the price and no complaints from us! Would stay here again if in the area.
+PROS: 
+Was able to have our...We were 1S/2A/1C + 1 small dog that stayed for one night mid-week in Jan '08. Checked in the evening without troubles - had made prior reservation. Was given a hand written map w/direction to our room and had no problem finding it. Parking places available just outside and behind our room. Our room door (1st floor) opened to a nice courtyard area. Room smelled fresh when entering and everything inside seemed clean. Beds were right against walls which meant only one side could get in and out easily. Beds weren't the most comfortable, but they worked. This room/location was perfect for our needs for a one night place to stay while traveling. Neighborhood seemed decent, quiet and safe - w/a high Asian population in the Rowland Heights area. Although we didn't get to enjoy any good Asian food we did grab a quick dessert from Fosters Feeze/El Pollo Loco (within walking distance from this Motel 6).  We also saw a Denny's on the other corner.Some freeway noise could be heard - walls obviously not to thick - and we also heard a rude man on a cell phone having a conversation for a little bit (right in front of our room) around 1am. This Motel 6 property overall was very good, just about what you'd expect for the price and no complaints from us! Would stay here again if in the area.PROS: Was able to have our dog stay with us FREE of charge!Close to Freeway &amp; FoodThe Price CONS: Just the freeway noise &amp; occasional guest noiseMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>We were 1S/2A/1C + 1 small dog that stayed for one night mid-week in Jan '08. Checked in the evening without troubles - had made prior reservation. 
+Was given a hand written map w/direction to our room and had no problem finding it. Parking places available just outside and behind our room. Our room door (1st floor) opened to a nice courtyard area. Room smelled fresh when entering and everything inside seemed clean. Beds were right against walls which meant only one side could get in and out easily. Beds weren't the most comfortable, but they worked. This room/location was perfect for our needs for a one night place to stay while traveling. 
+Neighborhood seemed decent, quiet and safe - w/a high Asian population in the Rowland Heights area. Although we didn't get to enjoy any good Asian food we did grab a quick dessert from Fosters Feeze/El Pollo Loco (within walking distance from this Motel 6).  We also saw a Denny's on the other corner.
+Some freeway noise could be heard - walls obviously not to thick - and we also heard a rude man on a cell phone having a conversation for a little bit (right in front of our room) around 1am. 
+This Motel 6 property overall was very good, just about what you'd expect for the price and no complaints from us! Would stay here again if in the area.
+PROS: 
+Was able to have our...We were 1S/2A/1C + 1 small dog that stayed for one night mid-week in Jan '08. Checked in the evening without troubles - had made prior reservation. Was given a hand written map w/direction to our room and had no problem finding it. Parking places available just outside and behind our room. Our room door (1st floor) opened to a nice courtyard area. Room smelled fresh when entering and everything inside seemed clean. Beds were right against walls which meant only one side could get in and out easily. Beds weren't the most comfortable, but they worked. This room/location was perfect for our needs for a one night place to stay while traveling. Neighborhood seemed decent, quiet and safe - w/a high Asian population in the Rowland Heights area. Although we didn't get to enjoy any good Asian food we did grab a quick dessert from Fosters Feeze/El Pollo Loco (within walking distance from this Motel 6).  We also saw a Denny's on the other corner.Some freeway noise could be heard - walls obviously not to thick - and we also heard a rude man on a cell phone having a conversation for a little bit (right in front of our room) around 1am. This Motel 6 property overall was very good, just about what you'd expect for the price and no complaints from us! Would stay here again if in the area.PROS: Was able to have our dog stay with us FREE of charge!Close to Freeway &amp; FoodThe Price CONS: Just the freeway noise &amp; occasional guest noiseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r8854238-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
+  </si>
+  <si>
+    <t>8854238</t>
+  </si>
+  <si>
+    <t>09/22/2007</t>
+  </si>
+  <si>
+    <t>Rude night-time check-in staff</t>
+  </si>
+  <si>
+    <t>We stayed at the place four times.   First three times are ok.  However this time, the night-time check-in staff was very cold and unfriendly.       For example, since she never asked my car's license plate, I asked her if she needed it.  She said she did not if it is the same car.    I was not sure what she meaned.  When I asked her again, she said: "I have already told you that".    When I checked the paperwork, it had some unknown license plate under my name.  When I pointed that out, she basically shrug and asked me to write down "whatever license plate" I want.   This is only one of the instances when she was rude and talked down to us.    Here is my summary of this motel:Pros:  The room is clean, seems well maintained.  Many good Chinese restaurants are a couple miles away (e.g, in Pacific Plaza).  Good price.Cons:   So-so sound insulation (expected for the price).   Tiny bathroom (expected)   Among all the places I have stayed, only this place has a thick plastic window (bullet-proof?) at the front desk  I don't remember seeing this last few times I stayed here though.     And of course, rude nightlime check-in staff.   For me, I will never return to this place.   I rather stay at a place where the staff pretend to understand the fact that their guests are the ones paying their wages.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>We stayed at the place four times.   First three times are ok.  However this time, the night-time check-in staff was very cold and unfriendly.       For example, since she never asked my car's license plate, I asked her if she needed it.  She said she did not if it is the same car.    I was not sure what she meaned.  When I asked her again, she said: "I have already told you that".    When I checked the paperwork, it had some unknown license plate under my name.  When I pointed that out, she basically shrug and asked me to write down "whatever license plate" I want.   This is only one of the instances when she was rude and talked down to us.    Here is my summary of this motel:Pros:  The room is clean, seems well maintained.  Many good Chinese restaurants are a couple miles away (e.g, in Pacific Plaza).  Good price.Cons:   So-so sound insulation (expected for the price).   Tiny bathroom (expected)   Among all the places I have stayed, only this place has a thick plastic window (bullet-proof?) at the front desk  I don't remember seeing this last few times I stayed here though.     And of course, rude nightlime check-in staff.   For me, I will never return to this place.   I rather stay at a place where the staff pretend to understand the fact that their guests are the ones paying their wages.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +917,691 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6360</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_554.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>clos801</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>nurse t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r456286070-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Anthony B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r439687657-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
   </si>
   <si>
     <t>November 2016</t>
+  </si>
+  <si>
+    <t>Jackson L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r362201079-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
@@ -247,6 +259,9 @@
 I once again provided the front desk with my itinerary number, confirmation number, and a copy of my receipt proving that I had made the reservation for two nights (April 5th, 2016 - April 7th, 2016) and...Wow, where do I even begin?My "stay" at Motel 6 Rowland Heights was by far one of the most stressful experiences I've had in a very, very long time. I booked a room at this location for two nights (April 5th, 2016 - April 7th, 2016) and I pre-paid for it online via Expedia.com When I initially attempted to check in, the front desk had absolutely no record of my reservation. I provided them with my itinerary number, my confirmation number, and even a copy of my receipt. After at least an hour or so of calling Expedia.com and Motel 6's customer support number, the issue was finally sorted out and I was able to check into my room. The next day on April 6th, I was locked out of my room for reasons unbeknownst to me. I promptly went to the front desk, and was told that they had no record of my reservation. I was blown away, and began to feel as if I were in a bad Disney movie or in an episode of The Twilight Zone. The agent at the front desk was the same one that I dealt with the day prior, and he was totally clueless. I once again provided the front desk with my itinerary number, confirmation number, and a copy of my receipt proving that I had made the reservation for two nights (April 5th, 2016 - April 7th, 2016) and that I had already paid for it in advance. With very little help or empathy from the front desk, I called Expedia.com and Motel 6's customer support number AGAIN and explained the situation to them for a second time. Both Expedia.com and Motel 6's customer support team confirmed that I definitely had a prepaid reservation for two nights, but couldn't explain as to why the front desk had no record of this. After about an hour of going back and forth on the phone with customer support, I was eventually greeted by the motel manager who showed up at my door with FOUR UNIFORMED SHERIFF'S DEPUTIES. The manager (in very broken English) exclaimed that I was running a scam of some sort, and that I was trespassing on the property. I was frisked for weapons, and then I was interrogated by the officers. After I explained the situation to them, the Sheriff's deputies simply advised me to collect my belongings on the spot, and to leave the premises right away. So I did. Immediately after, I called Motel 6's customer support number for a third and final time and I filed a formal complaint against the Rowland Heights location. The representative I spoke with profusely apologized for what had happened, and reassured me that my reservation was indeed legitimate and that everything on my end was done correctly. She went onto explain that the actions the Rowland Heights location took against me was completely unjustified and 110% inappropriate. On a positive note, Expedia.com processed a full refund to my debit card and profusely apologized as well, and they even helped move me to another hotel in the area. Overall, I have never in my life experienced anything like this whatsoever. My advice to anyone reading this would be to stay far, far away from Motel 6 Rowland Heights. If you absolutely have to stay here, just keep any receipts, confirmation numbers, etc. in order to be on the safe side. If and when it comes down to it, it'll be your word against theirs.More</t>
   </si>
   <si>
+    <t>GreenThumbSD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r298079192-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
   </si>
   <si>
@@ -263,6 +278,9 @@
   </si>
   <si>
     <t>August 2015</t>
+  </si>
+  <si>
+    <t>Raylynn2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r292824599-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
@@ -296,6 +314,9 @@
 Went to bed at midnight. Woke up at 3am and upon stepping out of my bed stepped into a puddle of water on my floor. I immediately turned on the light to find that half our room floor was flooded. I threw what towels I could down and tried to sleep a little more as we had to be to a conference a drive away fairly early. Upon waking at 6:30 I found that the flooding has extended to other parts of the room and was actually seeping from under the interior walls!  We are not talking a small amount of water. We are talking it took a dozen towels that were sopping wet to even be able to get ready and get out flooded. I called the front desk immediately and Sandra was not happy about being asked to come...I normally do everything I can to avoid staying with this chain as we always have something happen. However, while on our trip we made some last minute changes and needed somewhere to sleep. Based on the pictures and fairly good reviews if this updated property we gave it a try. We booked two nights. When we arrived Abilina was very pleasant and I let her know that the rug outside my door and sidewalk were soaked causing mud and wet footprints to extend into our room and hardwood floors. She gave us an extra towel to put down. Went to bed at midnight. Woke up at 3am and upon stepping out of my bed stepped into a puddle of water on my floor. I immediately turned on the light to find that half our room floor was flooded. I threw what towels I could down and tried to sleep a little more as we had to be to a conference a drive away fairly early. Upon waking at 6:30 I found that the flooding has extended to other parts of the room and was actually seeping from under the interior walls!  We are not talking a small amount of water. We are talking it took a dozen towels that were sopping wet to even be able to get ready and get out flooded. I called the front desk immediately and Sandra was not happy about being asked to come to our room, but I insisted she see this for herself. She was shocked!!!!  I asked for the second night to be cancelled and refunded as well as the night we were there. Had I slipped there could have some pretty serious issues and I would think after what we went through a refund would be a no brainer. Of course she couldn't authorize both refunds and only gave me the cancelled night. She called her manager who I heard telling on the phone saying she was not allowed to refund us for the flooded room, distress, and hassle. I informed the front desk lady I would be contacting corporate as well as the L A county hotel authority both of which I have done. She refused to let me talk to her manager. More</t>
   </si>
   <si>
+    <t>Daniel F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r167354817-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
   </si>
   <si>
@@ -320,6 +341,9 @@
     <t>The manager at this establishment is almost subhuman in his ways of comprehending how to run this business. He is very rude, cocky, incoherent, and is a waste of resources. Somehow, it warms his shriveled cockles to be rude to guests. His vindictive behavior led to my exile from this Motel 6 after my friend and I...I have been traveling around the world for work for the past 8 years, I stay in Motels/ Hotels about 150 nights of the year, i am self contracted so i when i can not find a good 3 star on priceline i'll just book a local Motel6 or Super8, TYPICALLY you pay for what you get, a room, shower and off in the morning. This...moreMore</t>
   </si>
   <si>
+    <t>sussam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r132699135-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
   </si>
   <si>
@@ -344,6 +368,9 @@
     <t>When you book at the Motel 6, you shouldn't expect the Sheraton.   The gentleman at the front desk was friendly enough at check in, he provided extra pillows for us when we asked later in the evening.  The bedspreads in the room were hideous, but functional.  The beds were very soft.  Once we were in the room, we felt safe, but worried about the rental car all night, as we heard sirens racing up and down the street.  We stayed in a room close to the freeway but did not hear the roar of cars.  We did use the swimming pool, it was salt water, and although cold, warmed up nicely once we were in.  This motel 6 is conviently located off the Hwy, but not in the best location.  We wished we had stayed at the Best Western across the freeway where we have always had great expierences.  We wanted to save some money and this Motel 6 lived up to its name.More</t>
   </si>
   <si>
+    <t>Clarissa87Holz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r115335520-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
   </si>
   <si>
     <t>The manager at this establishment is almost subhuman in his ways of comprehending how to run this business.  He is very rude, cocky, incoherent, and is a waste of resources.  Somehow, it warms his shriveled cockles to be rude to guests.  His vindictive behavior led to my exile from this Motel 6 after my friend and I complained to corporate for his childlike behavior.  Motel 6 needs to fire this man because he clearly doesn't deserve even my table scraps,If you'd like attitude from a low-life, slimy, bottom-feeding manager with a power trip, stay here.   bed, but the extras involved (crack heads loitering the halls, drunk prostitutes, police being called,  a creepy balding maid,, homeless begging for change by the rooms,  and unfriendly front desk ladies) should be enough for one to shell out the extra bucks and stay at the Quality Inn or the Best Western (staff here is wonderful!)Motel 6 Rowland Heights is a raw look at just how ghetto City of Industry is, the manager being a perfect ambassador for this type of scuzzy environment.More</t>
+  </si>
+  <si>
+    <t>karmannghia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r13013743-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
@@ -396,6 +426,9 @@
 This Motel 6 property overall was very good, just about what you'd expect for the price and no complaints from us! Would stay here again if in the area.
 PROS: 
 Was able to have our...We were 1S/2A/1C + 1 small dog that stayed for one night mid-week in Jan '08. Checked in the evening without troubles - had made prior reservation. Was given a hand written map w/direction to our room and had no problem finding it. Parking places available just outside and behind our room. Our room door (1st floor) opened to a nice courtyard area. Room smelled fresh when entering and everything inside seemed clean. Beds were right against walls which meant only one side could get in and out easily. Beds weren't the most comfortable, but they worked. This room/location was perfect for our needs for a one night place to stay while traveling. Neighborhood seemed decent, quiet and safe - w/a high Asian population in the Rowland Heights area. Although we didn't get to enjoy any good Asian food we did grab a quick dessert from Fosters Feeze/El Pollo Loco (within walking distance from this Motel 6).  We also saw a Denny's on the other corner.Some freeway noise could be heard - walls obviously not to thick - and we also heard a rude man on a cell phone having a conversation for a little bit (right in front of our room) around 1am. This Motel 6 property overall was very good, just about what you'd expect for the price and no complaints from us! Would stay here again if in the area.PROS: Was able to have our dog stay with us FREE of charge!Close to Freeway &amp; FoodThe Price CONS: Just the freeway noise &amp; occasional guest noiseMore</t>
+  </si>
+  <si>
+    <t>MonsterRider</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32992-d244449-r8854238-Motel_6_Los_Angeles_Rowland_Heights-Rowland_Heights_California.html</t>
@@ -921,43 +954,47 @@
       <c r="A2" t="n">
         <v>6360</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -971,50 +1008,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6360</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1028,50 +1069,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6360</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1085,50 +1130,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6360</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1148,50 +1197,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6360</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
         <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" t="s">
-        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1209,50 +1262,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6360</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1264,56 +1321,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6360</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1337,50 +1398,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6360</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1404,50 +1469,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6360</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1467,50 +1536,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6360</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1532,50 +1605,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6360</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1599,7 +1676,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
